--- a/BalanceSheet/KMX_bal.xlsx
+++ b/BalanceSheet/KMX_bal.xlsx
@@ -504,19 +504,19 @@
         </is>
       </c>
       <c r="B4" s="0" t="n">
-        <v>-389529000.0</v>
+        <v>3157000000.0</v>
       </c>
       <c r="C4" s="0" t="n">
-        <v>44754000.0</v>
+        <v>2780000000.0</v>
       </c>
       <c r="D4" s="0" t="n">
-        <v>-925529000.0</v>
+        <v>2825000000.0</v>
       </c>
       <c r="E4" s="0" t="n">
-        <v>946986000.0</v>
+        <v>1899000000.0</v>
       </c>
       <c r="F4" s="0" t="n">
-        <v>-163842000.0</v>
+        <v>2846000000.0</v>
       </c>
       <c r="G4" s="0" t="n">
         <v>2682574000.0</v>
@@ -3350,19 +3350,19 @@
         </is>
       </c>
       <c r="B24" s="0" t="n">
-        <v>-16258000.0</v>
+        <v>-164000000.0</v>
       </c>
       <c r="C24" s="0" t="n">
-        <v>-28127000.0</v>
+        <v>-159000000.0</v>
       </c>
       <c r="D24" s="0" t="n">
-        <v>-16443000.0</v>
+        <v>-134000000.0</v>
       </c>
       <c r="E24" s="0" t="n">
-        <v>25041000.0</v>
+        <v>-119000000.0</v>
       </c>
       <c r="F24" s="0" t="n">
-        <v>-358000.0</v>
+        <v>-90000000.0</v>
       </c>
       <c r="G24" s="0" t="inlineStr">
         <is>
